--- a/biology/Origine et évolution du vivant/Plumatella_repens/Plumatella_repens.xlsx
+++ b/biology/Origine et évolution du vivant/Plumatella_repens/Plumatella_repens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plumatella repens est un genre de petits ectoproctes (bryozoaires) d'eau douce de la famille des Plumatellidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plumatella repens est un genre de petits ectoproctes (bryozoaires) d'eau douce de la famille des Plumatellidae.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom de genre provient du fait que, vu de près, les polypes donnent à une colonie dense un aspect « plumeux », le nom d’espèce provient du fait que les rameaux formés par la colonie s’étendent souvent sur des branches ou troncs immergés de manière rampante, parfois sur des supports durs (ex : brique ou pierre sur le fond), mais jamais directement sur la vase ou un sédiment fin.
 </t>
@@ -542,9 +556,11 @@
           <t>Parasitoses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">P. repens, sans surprise étant donné son mode d'alimentation, peut être infesté par divers parasite, dont un ver malacosporéen qui produit dans son hôte des sacs de spores de 1,2 mm de long (ces spores, presque semblables à celles de deux espèces déjà identifiées de Tetracapsula (Myxozoa) : T. bryozoides et Tetracapsula bryosalmonae redouté pour les dégâts qu'il peut faire dans certaines piscicultures de salmonidés) sont relargués dans le milieu via les lophophores[2]).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P. repens, sans surprise étant donné son mode d'alimentation, peut être infesté par divers parasite, dont un ver malacosporéen qui produit dans son hôte des sacs de spores de 1,2 mm de long (ces spores, presque semblables à celles de deux espèces déjà identifiées de Tetracapsula (Myxozoa) : T. bryozoides et Tetracapsula bryosalmonae redouté pour les dégâts qu'il peut faire dans certaines piscicultures de salmonidés) sont relargués dans le milieu via les lophophores).
 </t>
         </is>
       </c>
